--- a/report/TrailATRf/NSDQ.xlsx
+++ b/report/TrailATRf/NSDQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="26">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>H4</t>
+  </si>
+  <si>
+    <t>M15</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V312"/>
+  <dimension ref="A1:V320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20718,16 +20721,16 @@
     </row>
     <row r="299" spans="1:22">
       <c r="A299">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B299">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C299" t="s">
         <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E299">
         <v>2017</v>
@@ -20736,66 +20739,66 @@
         <v>2024</v>
       </c>
       <c r="G299">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H299">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="I299">
         <v>80</v>
       </c>
       <c r="J299">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L299">
-        <v>-55272.2</v>
+        <v>-55179.49999999985</v>
       </c>
       <c r="M299">
-        <v>-27636.1</v>
+        <v>-28298.59999999993</v>
       </c>
       <c r="N299">
-        <v>146</v>
+        <v>1939</v>
       </c>
       <c r="O299">
-        <v>-27636.1</v>
+        <v>-26880.89999999992</v>
       </c>
       <c r="P299">
-        <v>-7451.6</v>
+        <v>-7426.900000000001</v>
       </c>
       <c r="Q299">
-        <v>1357.700000000001</v>
+        <v>930</v>
       </c>
       <c r="R299">
-        <v>-189.2883561643835</v>
+        <v>-13.86328004125834</v>
       </c>
       <c r="S299">
-        <v>871.0807889580727</v>
+        <v>261.8529784903538</v>
       </c>
       <c r="T299">
-        <v>-91.30000000000018</v>
+        <v>-19</v>
       </c>
       <c r="U299">
-        <v>0.0547945205479452</v>
+        <v>0.3182052604435276</v>
       </c>
       <c r="V299">
-        <v>-630.5365107975222</v>
+        <v>-629.4790038672567</v>
       </c>
     </row>
     <row r="300" spans="1:22">
       <c r="A300">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="B300">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C300" t="s">
         <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E300">
         <v>2017</v>
@@ -20804,60 +20807,60 @@
         <v>2024</v>
       </c>
       <c r="G300">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I300">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J300">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K300">
         <v>1</v>
       </c>
       <c r="L300">
-        <v>-55485.89999999997</v>
+        <v>-55272.2</v>
       </c>
       <c r="M300">
-        <v>-28482.29999999999</v>
+        <v>-27636.1</v>
       </c>
       <c r="N300">
-        <v>664</v>
+        <v>146</v>
       </c>
       <c r="O300">
-        <v>-27003.59999999998</v>
+        <v>-27636.1</v>
       </c>
       <c r="P300">
-        <v>-7206.5</v>
+        <v>-7451.6</v>
       </c>
       <c r="Q300">
-        <v>1771.599999999999</v>
+        <v>1357.700000000001</v>
       </c>
       <c r="R300">
-        <v>-40.6680722891566</v>
+        <v>-189.2883561643835</v>
       </c>
       <c r="S300">
-        <v>337.4334526608131</v>
+        <v>871.0807889580727</v>
       </c>
       <c r="T300">
-        <v>-69.69999999999891</v>
+        <v>-91.30000000000018</v>
       </c>
       <c r="U300">
-        <v>0.2123493975903614</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="V300">
-        <v>-632.9743665795866</v>
+        <v>-630.5365107975222</v>
       </c>
     </row>
     <row r="301" spans="1:22">
       <c r="A301">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B301">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
@@ -20872,10 +20875,10 @@
         <v>2024</v>
       </c>
       <c r="G301">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>10</v>
@@ -20884,54 +20887,54 @@
         <v>60</v>
       </c>
       <c r="K301">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L301">
-        <v>-56783.90000000002</v>
+        <v>-55485.89999999997</v>
       </c>
       <c r="M301">
-        <v>-28418.60000000001</v>
+        <v>-28482.29999999999</v>
       </c>
       <c r="N301">
-        <v>363</v>
+        <v>664</v>
       </c>
       <c r="O301">
-        <v>-28365.30000000001</v>
+        <v>-27003.59999999998</v>
       </c>
       <c r="P301">
-        <v>-7425.1</v>
+        <v>-7206.5</v>
       </c>
       <c r="Q301">
-        <v>1458.4</v>
+        <v>1771.599999999999</v>
       </c>
       <c r="R301">
-        <v>-78.14132231404962</v>
+        <v>-40.6680722891566</v>
       </c>
       <c r="S301">
-        <v>576.9353500412132</v>
+        <v>337.4334526608131</v>
       </c>
       <c r="T301">
-        <v>-81.90000000000146</v>
+        <v>-69.69999999999891</v>
       </c>
       <c r="U301">
-        <v>0.1735537190082645</v>
+        <v>0.2123493975903614</v>
       </c>
       <c r="V301">
-        <v>-647.7817451716312</v>
+        <v>-632.9743665795866</v>
       </c>
     </row>
     <row r="302" spans="1:22">
       <c r="A302">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B302">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C302" t="s">
         <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E302">
         <v>2017</v>
@@ -20940,66 +20943,66 @@
         <v>2024</v>
       </c>
       <c r="G302">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J302">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K302">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L302">
-        <v>-60351.99999999997</v>
+        <v>-56783.90000000002</v>
       </c>
       <c r="M302">
-        <v>-30175.99999999999</v>
+        <v>-28418.60000000001</v>
       </c>
       <c r="N302">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="O302">
-        <v>-30175.99999999999</v>
+        <v>-28365.30000000001</v>
       </c>
       <c r="P302">
-        <v>-7451.6</v>
+        <v>-7425.1</v>
       </c>
       <c r="Q302">
-        <v>2312.9</v>
+        <v>1458.4</v>
       </c>
       <c r="R302">
-        <v>-171.4545454545454</v>
+        <v>-78.14132231404962</v>
       </c>
       <c r="S302">
-        <v>1007.047837844167</v>
+        <v>576.9353500412132</v>
       </c>
       <c r="T302">
-        <v>-126.3499999999995</v>
+        <v>-81.90000000000146</v>
       </c>
       <c r="U302">
-        <v>0.2045454545454546</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="V302">
-        <v>-688.4860653213016</v>
+        <v>-647.7817451716312</v>
       </c>
     </row>
     <row r="303" spans="1:22">
       <c r="A303">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B303">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C303" t="s">
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E303">
         <v>2017</v>
@@ -21008,60 +21011,60 @@
         <v>2024</v>
       </c>
       <c r="G303">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303">
         <v>50</v>
       </c>
       <c r="J303">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K303">
         <v>1</v>
       </c>
       <c r="L303">
-        <v>-60522.10000000002</v>
+        <v>-60351.99999999997</v>
       </c>
       <c r="M303">
-        <v>-30274.50000000001</v>
+        <v>-30175.99999999999</v>
       </c>
       <c r="N303">
-        <v>735</v>
+        <v>176</v>
       </c>
       <c r="O303">
-        <v>-30247.60000000002</v>
+        <v>-30175.99999999999</v>
       </c>
       <c r="P303">
-        <v>-7447.400000000001</v>
+        <v>-7451.6</v>
       </c>
       <c r="Q303">
-        <v>908.8000000000011</v>
+        <v>2312.9</v>
       </c>
       <c r="R303">
-        <v>-41.15319727891158</v>
+        <v>-171.4545454545454</v>
       </c>
       <c r="S303">
-        <v>297.5705993404225</v>
+        <v>1007.047837844167</v>
       </c>
       <c r="T303">
-        <v>-35.60000000000036</v>
+        <v>-126.3499999999995</v>
       </c>
       <c r="U303">
-        <v>0.08571428571428572</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="V303">
-        <v>-690.4265392030484</v>
+        <v>-688.4860653213016</v>
       </c>
     </row>
     <row r="304" spans="1:22">
       <c r="A304">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B304">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="C304" t="s">
         <v>22</v>
@@ -21079,131 +21082,131 @@
         <v>40</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="J304">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K304">
         <v>1</v>
       </c>
       <c r="L304">
-        <v>-62319.70000000003</v>
+        <v>-60522.10000000002</v>
       </c>
       <c r="M304">
-        <v>-31244.00000000001</v>
+        <v>-30274.50000000001</v>
       </c>
       <c r="N304">
-        <v>525</v>
+        <v>735</v>
       </c>
       <c r="O304">
-        <v>-31075.70000000001</v>
+        <v>-30247.60000000002</v>
       </c>
       <c r="P304">
-        <v>-7633.900000000001</v>
+        <v>-7447.400000000001</v>
       </c>
       <c r="Q304">
-        <v>2475.699999999999</v>
+        <v>908.8000000000011</v>
       </c>
       <c r="R304">
-        <v>-59.19180952380955</v>
+        <v>-41.15319727891158</v>
       </c>
       <c r="S304">
-        <v>696.8507101644697</v>
+        <v>297.5705993404225</v>
       </c>
       <c r="T304">
-        <v>-46.30000000000109</v>
+        <v>-35.60000000000036</v>
       </c>
       <c r="U304">
-        <v>0.1923809523809524</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="V304">
-        <v>-710.9332755336022</v>
+        <v>-690.4265392030484</v>
       </c>
     </row>
     <row r="305" spans="1:22">
       <c r="A305">
+        <v>130</v>
+      </c>
+      <c r="B305">
+        <v>167</v>
+      </c>
+      <c r="C305" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" t="s">
+        <v>24</v>
+      </c>
+      <c r="E305">
+        <v>2017</v>
+      </c>
+      <c r="F305">
+        <v>2024</v>
+      </c>
+      <c r="G305">
+        <v>40</v>
+      </c>
+      <c r="H305">
         <v>3</v>
       </c>
-      <c r="B305">
-        <v>4</v>
-      </c>
-      <c r="C305" t="s">
-        <v>22</v>
-      </c>
-      <c r="D305" t="s">
-        <v>23</v>
-      </c>
-      <c r="E305">
-        <v>2017</v>
-      </c>
-      <c r="F305">
-        <v>2024</v>
-      </c>
-      <c r="G305">
-        <v>30</v>
-      </c>
-      <c r="H305">
-        <v>1.4</v>
-      </c>
       <c r="I305">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J305">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K305">
         <v>1</v>
       </c>
       <c r="L305">
-        <v>-62320.00000000002</v>
+        <v>-62319.70000000003</v>
       </c>
       <c r="M305">
-        <v>-31160.00000000001</v>
+        <v>-31244.00000000001</v>
       </c>
       <c r="N305">
-        <v>154</v>
+        <v>525</v>
       </c>
       <c r="O305">
-        <v>-31160.00000000001</v>
+        <v>-31075.70000000001</v>
       </c>
       <c r="P305">
-        <v>-7451.6</v>
+        <v>-7633.900000000001</v>
       </c>
       <c r="Q305">
-        <v>4511.800000000001</v>
+        <v>2475.699999999999</v>
       </c>
       <c r="R305">
-        <v>-202.3376623376624</v>
+        <v>-59.19180952380955</v>
       </c>
       <c r="S305">
-        <v>1100.306652656545</v>
+        <v>696.8507101644697</v>
       </c>
       <c r="T305">
-        <v>-132.6500000000005</v>
+        <v>-46.30000000000109</v>
       </c>
       <c r="U305">
-        <v>0.1493506493506493</v>
+        <v>0.1923809523809524</v>
       </c>
       <c r="V305">
-        <v>-710.9366978861271</v>
+        <v>-710.9332755336022</v>
       </c>
     </row>
     <row r="306" spans="1:22">
       <c r="A306">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B306">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E306">
         <v>2017</v>
@@ -21212,66 +21215,66 @@
         <v>2024</v>
       </c>
       <c r="G306">
+        <v>30</v>
+      </c>
+      <c r="H306">
+        <v>1.4</v>
+      </c>
+      <c r="I306">
+        <v>95</v>
+      </c>
+      <c r="J306">
         <v>100</v>
-      </c>
-      <c r="H306">
-        <v>2.8</v>
-      </c>
-      <c r="I306">
-        <v>5</v>
-      </c>
-      <c r="J306">
-        <v>60</v>
       </c>
       <c r="K306">
         <v>1</v>
       </c>
       <c r="L306">
-        <v>-69217.40000000005</v>
+        <v>-62320.00000000002</v>
       </c>
       <c r="M306">
-        <v>-34901.70000000001</v>
+        <v>-31160.00000000001</v>
       </c>
       <c r="N306">
-        <v>1015</v>
+        <v>154</v>
       </c>
       <c r="O306">
-        <v>-34315.70000000004</v>
+        <v>-31160.00000000001</v>
       </c>
       <c r="P306">
-        <v>-7206.5</v>
+        <v>-7451.6</v>
       </c>
       <c r="Q306">
-        <v>1748.9</v>
+        <v>4511.800000000001</v>
       </c>
       <c r="R306">
-        <v>-33.80857142857147</v>
+        <v>-202.3376623376624</v>
       </c>
       <c r="S306">
-        <v>278.1838345206269</v>
+        <v>1100.306652656545</v>
       </c>
       <c r="T306">
-        <v>-64.09999999999854</v>
+        <v>-132.6500000000005</v>
       </c>
       <c r="U306">
-        <v>0.2610837438423645</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="V306">
-        <v>-789.6211455754692</v>
+        <v>-710.9366978861271</v>
       </c>
     </row>
     <row r="307" spans="1:22">
       <c r="A307">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B307">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="C307" t="s">
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E307">
         <v>2017</v>
@@ -21280,60 +21283,60 @@
         <v>2024</v>
       </c>
       <c r="G307">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H307">
-        <v>1.2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I307">
+        <v>15</v>
+      </c>
+      <c r="J307">
         <v>20</v>
       </c>
-      <c r="J307">
-        <v>60</v>
-      </c>
       <c r="K307">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L307">
-        <v>-70070.20000000004</v>
+        <v>-63452.09999999981</v>
       </c>
       <c r="M307">
-        <v>-35035.10000000002</v>
+        <v>-32104.99999999991</v>
       </c>
       <c r="N307">
-        <v>223</v>
+        <v>2858</v>
       </c>
       <c r="O307">
-        <v>-35035.10000000002</v>
+        <v>-31347.0999999999</v>
       </c>
       <c r="P307">
-        <v>-7451.6</v>
+        <v>-7620.400000000001</v>
       </c>
       <c r="Q307">
-        <v>2212.799999999999</v>
+        <v>823.3999999999996</v>
       </c>
       <c r="R307">
-        <v>-157.108071748879</v>
+        <v>-10.96819454163747</v>
       </c>
       <c r="S307">
-        <v>900.4639536722711</v>
+        <v>208.2075814410188</v>
       </c>
       <c r="T307">
-        <v>-111.1000000000004</v>
+        <v>-23.10000000000036</v>
       </c>
       <c r="U307">
-        <v>0.1479820627802691</v>
+        <v>0.2078376487053884</v>
       </c>
       <c r="V307">
-        <v>-799.3497530202266</v>
+        <v>-723.8515155317745</v>
       </c>
     </row>
     <row r="308" spans="1:22">
       <c r="A308">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B308">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="C308" t="s">
         <v>22</v>
@@ -21348,66 +21351,66 @@
         <v>2024</v>
       </c>
       <c r="G308">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H308">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I308">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J308">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K308">
         <v>1</v>
       </c>
       <c r="L308">
-        <v>-70483.40000000008</v>
+        <v>-69217.40000000005</v>
       </c>
       <c r="M308">
-        <v>-35241.70000000004</v>
+        <v>-34901.70000000001</v>
       </c>
       <c r="N308">
-        <v>537</v>
+        <v>1015</v>
       </c>
       <c r="O308">
-        <v>-35241.70000000004</v>
+        <v>-34315.70000000004</v>
       </c>
       <c r="P308">
-        <v>-7633.900000000001</v>
+        <v>-7206.5</v>
       </c>
       <c r="Q308">
-        <v>2573.799999999999</v>
+        <v>1748.9</v>
       </c>
       <c r="R308">
-        <v>-65.62700186219747</v>
+        <v>-33.80857142857147</v>
       </c>
       <c r="S308">
-        <v>685.2514897508232</v>
+        <v>278.1838345206269</v>
       </c>
       <c r="T308">
-        <v>-47.10000000000036</v>
+        <v>-64.09999999999854</v>
       </c>
       <c r="U308">
-        <v>0.1843575418994413</v>
+        <v>0.2610837438423645</v>
       </c>
       <c r="V308">
-        <v>-804.0634732315002</v>
+        <v>-789.6211455754692</v>
       </c>
     </row>
     <row r="309" spans="1:22">
       <c r="A309">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B309">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C309" t="s">
         <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E309">
         <v>2017</v>
@@ -21416,60 +21419,60 @@
         <v>2024</v>
       </c>
       <c r="G309">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H309">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I309">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J309">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K309">
         <v>1</v>
       </c>
       <c r="L309">
-        <v>-75831.20000000004</v>
+        <v>-70070.20000000004</v>
       </c>
       <c r="M309">
-        <v>-37915.60000000002</v>
+        <v>-35035.10000000002</v>
       </c>
       <c r="N309">
-        <v>669</v>
+        <v>223</v>
       </c>
       <c r="O309">
-        <v>-37915.60000000002</v>
+        <v>-35035.10000000002</v>
       </c>
       <c r="P309">
-        <v>-7466.700000000001</v>
+        <v>-7451.6</v>
       </c>
       <c r="Q309">
-        <v>1000.700000000001</v>
+        <v>2212.799999999999</v>
       </c>
       <c r="R309">
-        <v>-56.6750373692078</v>
+        <v>-157.108071748879</v>
       </c>
       <c r="S309">
-        <v>415.8486058042799</v>
+        <v>900.4639536722711</v>
       </c>
       <c r="T309">
-        <v>-35.89999999999964</v>
+        <v>-111.1000000000004</v>
       </c>
       <c r="U309">
-        <v>0.08370702541106129</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="V309">
-        <v>-865.0703293443918</v>
+        <v>-799.3497530202266</v>
       </c>
     </row>
     <row r="310" spans="1:22">
       <c r="A310">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B310">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C310" t="s">
         <v>22</v>
@@ -21484,66 +21487,66 @@
         <v>2024</v>
       </c>
       <c r="G310">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H310">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="J310">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L310">
-        <v>-82301.79999999996</v>
+        <v>-70483.40000000008</v>
       </c>
       <c r="M310">
-        <v>-41150.89999999998</v>
+        <v>-35241.70000000004</v>
       </c>
       <c r="N310">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="O310">
-        <v>-41150.89999999998</v>
+        <v>-35241.70000000004</v>
       </c>
       <c r="P310">
-        <v>-7666.200000000001</v>
+        <v>-7633.900000000001</v>
       </c>
       <c r="Q310">
-        <v>1293.9</v>
+        <v>2573.799999999999</v>
       </c>
       <c r="R310">
-        <v>-70.22337883959041</v>
+        <v>-65.62700186219747</v>
       </c>
       <c r="S310">
-        <v>568.3122870816442</v>
+        <v>685.2514897508232</v>
       </c>
       <c r="T310">
-        <v>-75.55000000000018</v>
+        <v>-47.10000000000036</v>
       </c>
       <c r="U310">
-        <v>0.3071672354948806</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="V310">
-        <v>-938.8859101746536</v>
+        <v>-804.0634732315002</v>
       </c>
     </row>
     <row r="311" spans="1:22">
       <c r="A311">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="B311">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="C311" t="s">
         <v>22</v>
       </c>
       <c r="D311" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E311">
         <v>2017</v>
@@ -21552,120 +21555,664 @@
         <v>2024</v>
       </c>
       <c r="G311">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H311">
-        <v>3.600000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="I311">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J311">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="K311">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L311">
-        <v>-87516.39999999997</v>
+        <v>-70600.3</v>
       </c>
       <c r="M311">
-        <v>-43758.19999999998</v>
+        <v>-40228.49999999996</v>
       </c>
       <c r="N311">
-        <v>522</v>
+        <v>1521</v>
       </c>
       <c r="O311">
-        <v>-43758.19999999998</v>
+        <v>-30371.80000000004</v>
       </c>
       <c r="P311">
-        <v>-7427.400000000001</v>
+        <v>-7677.400000000001</v>
       </c>
       <c r="Q311">
-        <v>1644.700000000001</v>
+        <v>1168.4</v>
       </c>
       <c r="R311">
-        <v>-83.82796934865897</v>
+        <v>-19.9683103221565</v>
       </c>
       <c r="S311">
-        <v>572.3119610072538</v>
+        <v>455.0933834946008</v>
       </c>
       <c r="T311">
-        <v>-40.80000000000018</v>
+        <v>-15.69999999999982</v>
       </c>
       <c r="U311">
-        <v>0.05172413793103448</v>
+        <v>0.3905325443786982</v>
       </c>
       <c r="V311">
-        <v>-998.3732417663898</v>
+        <v>-805.3970499321234</v>
       </c>
     </row>
     <row r="312" spans="1:22">
       <c r="A312">
+        <v>6</v>
+      </c>
+      <c r="B312">
+        <v>9</v>
+      </c>
+      <c r="C312" t="s">
+        <v>22</v>
+      </c>
+      <c r="D312" t="s">
+        <v>25</v>
+      </c>
+      <c r="E312">
+        <v>2017</v>
+      </c>
+      <c r="F312">
+        <v>2024</v>
+      </c>
+      <c r="G312">
+        <v>60</v>
+      </c>
+      <c r="H312">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I312">
+        <v>50</v>
+      </c>
+      <c r="J312">
+        <v>180</v>
+      </c>
+      <c r="K312">
+        <v>5</v>
+      </c>
+      <c r="L312">
+        <v>-73643.7000000001</v>
+      </c>
+      <c r="M312">
+        <v>-37764.10000000006</v>
+      </c>
+      <c r="N312">
+        <v>2389</v>
+      </c>
+      <c r="O312">
+        <v>-35879.60000000003</v>
+      </c>
+      <c r="P312">
+        <v>-7625.6</v>
+      </c>
+      <c r="Q312">
+        <v>881.8000000000011</v>
+      </c>
+      <c r="R312">
+        <v>-15.01866889912099</v>
+      </c>
+      <c r="S312">
+        <v>328.0857143357193</v>
+      </c>
+      <c r="T312">
+        <v>-13.69999999999982</v>
+      </c>
+      <c r="U312">
+        <v>0.4030975303474257</v>
+      </c>
+      <c r="V312">
+        <v>-840.1156755153504</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22">
+      <c r="A313">
+        <v>36</v>
+      </c>
+      <c r="B313">
+        <v>45</v>
+      </c>
+      <c r="C313" t="s">
+        <v>22</v>
+      </c>
+      <c r="D313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E313">
+        <v>2017</v>
+      </c>
+      <c r="F313">
+        <v>2024</v>
+      </c>
+      <c r="G313">
+        <v>50</v>
+      </c>
+      <c r="H313">
+        <v>2.8</v>
+      </c>
+      <c r="I313">
+        <v>80</v>
+      </c>
+      <c r="J313">
+        <v>20</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+      <c r="L313">
+        <v>-75831.20000000004</v>
+      </c>
+      <c r="M313">
+        <v>-37915.60000000002</v>
+      </c>
+      <c r="N313">
+        <v>669</v>
+      </c>
+      <c r="O313">
+        <v>-37915.60000000002</v>
+      </c>
+      <c r="P313">
+        <v>-7466.700000000001</v>
+      </c>
+      <c r="Q313">
+        <v>1000.700000000001</v>
+      </c>
+      <c r="R313">
+        <v>-56.6750373692078</v>
+      </c>
+      <c r="S313">
+        <v>415.8486058042799</v>
+      </c>
+      <c r="T313">
+        <v>-35.89999999999964</v>
+      </c>
+      <c r="U313">
+        <v>0.08370702541106129</v>
+      </c>
+      <c r="V313">
+        <v>-865.0703293443918</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22">
+      <c r="A314">
+        <v>52</v>
+      </c>
+      <c r="B314">
+        <v>66</v>
+      </c>
+      <c r="C314" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" t="s">
+        <v>24</v>
+      </c>
+      <c r="E314">
+        <v>2017</v>
+      </c>
+      <c r="F314">
+        <v>2024</v>
+      </c>
+      <c r="G314">
+        <v>5</v>
+      </c>
+      <c r="H314">
+        <v>1.4</v>
+      </c>
+      <c r="I314">
+        <v>5</v>
+      </c>
+      <c r="J314">
+        <v>120</v>
+      </c>
+      <c r="K314">
+        <v>4</v>
+      </c>
+      <c r="L314">
+        <v>-82301.79999999996</v>
+      </c>
+      <c r="M314">
+        <v>-41150.89999999998</v>
+      </c>
+      <c r="N314">
+        <v>586</v>
+      </c>
+      <c r="O314">
+        <v>-41150.89999999998</v>
+      </c>
+      <c r="P314">
+        <v>-7666.200000000001</v>
+      </c>
+      <c r="Q314">
+        <v>1293.9</v>
+      </c>
+      <c r="R314">
+        <v>-70.22337883959041</v>
+      </c>
+      <c r="S314">
+        <v>568.3122870816442</v>
+      </c>
+      <c r="T314">
+        <v>-75.55000000000018</v>
+      </c>
+      <c r="U314">
+        <v>0.3071672354948806</v>
+      </c>
+      <c r="V314">
+        <v>-938.8859101746536</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22">
+      <c r="A315">
+        <v>4</v>
+      </c>
+      <c r="B315">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>22</v>
+      </c>
+      <c r="D315" t="s">
+        <v>25</v>
+      </c>
+      <c r="E315">
+        <v>2017</v>
+      </c>
+      <c r="F315">
+        <v>2024</v>
+      </c>
+      <c r="G315">
+        <v>55</v>
+      </c>
+      <c r="H315">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I315">
+        <v>30</v>
+      </c>
+      <c r="J315">
+        <v>200</v>
+      </c>
+      <c r="K315">
+        <v>6</v>
+      </c>
+      <c r="L315">
+        <v>-82648.39999999983</v>
+      </c>
+      <c r="M315">
+        <v>-42810.09999999992</v>
+      </c>
+      <c r="N315">
+        <v>2528</v>
+      </c>
+      <c r="O315">
+        <v>-39838.29999999992</v>
+      </c>
+      <c r="P315">
+        <v>-7628.8</v>
+      </c>
+      <c r="Q315">
+        <v>846.2000000000007</v>
+      </c>
+      <c r="R315">
+        <v>-15.75882120253161</v>
+      </c>
+      <c r="S315">
+        <v>353.0610018534776</v>
+      </c>
+      <c r="T315">
+        <v>-10.70000000000073</v>
+      </c>
+      <c r="U315">
+        <v>0.4177215189873418</v>
+      </c>
+      <c r="V315">
+        <v>-942.8398681253475</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22">
+      <c r="A316">
+        <v>111</v>
+      </c>
+      <c r="B316">
+        <v>144</v>
+      </c>
+      <c r="C316" t="s">
+        <v>22</v>
+      </c>
+      <c r="D316" t="s">
+        <v>24</v>
+      </c>
+      <c r="E316">
+        <v>2017</v>
+      </c>
+      <c r="F316">
+        <v>2024</v>
+      </c>
+      <c r="G316">
+        <v>95</v>
+      </c>
+      <c r="H316">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I316">
+        <v>90</v>
+      </c>
+      <c r="J316">
+        <v>20</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>-87516.39999999997</v>
+      </c>
+      <c r="M316">
+        <v>-43758.19999999998</v>
+      </c>
+      <c r="N316">
+        <v>522</v>
+      </c>
+      <c r="O316">
+        <v>-43758.19999999998</v>
+      </c>
+      <c r="P316">
+        <v>-7427.400000000001</v>
+      </c>
+      <c r="Q316">
+        <v>1644.700000000001</v>
+      </c>
+      <c r="R316">
+        <v>-83.82796934865897</v>
+      </c>
+      <c r="S316">
+        <v>572.3119610072538</v>
+      </c>
+      <c r="T316">
+        <v>-40.80000000000018</v>
+      </c>
+      <c r="U316">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="V316">
+        <v>-998.3732417663898</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>22</v>
+      </c>
+      <c r="D317" t="s">
+        <v>25</v>
+      </c>
+      <c r="E317">
+        <v>2017</v>
+      </c>
+      <c r="F317">
+        <v>2024</v>
+      </c>
+      <c r="G317">
+        <v>75</v>
+      </c>
+      <c r="H317">
+        <v>3.8</v>
+      </c>
+      <c r="I317">
+        <v>60</v>
+      </c>
+      <c r="J317">
+        <v>40</v>
+      </c>
+      <c r="K317">
+        <v>4</v>
+      </c>
+      <c r="L317">
+        <v>-89127.10000000019</v>
+      </c>
+      <c r="M317">
+        <v>-44839.4000000001</v>
+      </c>
+      <c r="N317">
+        <v>2708</v>
+      </c>
+      <c r="O317">
+        <v>-44287.7000000001</v>
+      </c>
+      <c r="P317">
+        <v>-7626.5</v>
+      </c>
+      <c r="Q317">
+        <v>817.8000000000011</v>
+      </c>
+      <c r="R317">
+        <v>-16.35439438700151</v>
+      </c>
+      <c r="S317">
+        <v>261.8041052513876</v>
+      </c>
+      <c r="T317">
+        <v>-40.70000000000027</v>
+      </c>
+      <c r="U317">
+        <v>0.2562776957163959</v>
+      </c>
+      <c r="V317">
+        <v>-1016.747852473793</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
+        <v>22</v>
+      </c>
+      <c r="D318" t="s">
+        <v>25</v>
+      </c>
+      <c r="E318">
+        <v>2017</v>
+      </c>
+      <c r="F318">
+        <v>2024</v>
+      </c>
+      <c r="G318">
+        <v>35</v>
+      </c>
+      <c r="H318">
+        <v>3.8</v>
+      </c>
+      <c r="I318">
+        <v>55</v>
+      </c>
+      <c r="J318">
+        <v>160</v>
+      </c>
+      <c r="K318">
+        <v>6</v>
+      </c>
+      <c r="L318">
+        <v>-89889.30000000005</v>
+      </c>
+      <c r="M318">
+        <v>-47394.20000000005</v>
+      </c>
+      <c r="N318">
+        <v>1989</v>
+      </c>
+      <c r="O318">
+        <v>-42495.09999999999</v>
+      </c>
+      <c r="P318">
+        <v>-7625</v>
+      </c>
+      <c r="Q318">
+        <v>1072</v>
+      </c>
+      <c r="R318">
+        <v>-21.36505781799899</v>
+      </c>
+      <c r="S318">
+        <v>429.6364550758876</v>
+      </c>
+      <c r="T318">
+        <v>-15.59999999999854</v>
+      </c>
+      <c r="U318">
+        <v>0.3966817496229261</v>
+      </c>
+      <c r="V318">
+        <v>-1025.442909455961</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22">
+      <c r="A319">
         <v>12</v>
       </c>
-      <c r="B312">
+      <c r="B319">
         <v>14</v>
       </c>
-      <c r="C312" t="s">
-        <v>22</v>
-      </c>
-      <c r="D312" t="s">
+      <c r="C319" t="s">
+        <v>22</v>
+      </c>
+      <c r="D319" t="s">
         <v>24</v>
       </c>
-      <c r="E312">
-        <v>2017</v>
-      </c>
-      <c r="F312">
-        <v>2024</v>
-      </c>
-      <c r="G312">
+      <c r="E319">
+        <v>2017</v>
+      </c>
+      <c r="F319">
+        <v>2024</v>
+      </c>
+      <c r="G319">
         <v>80</v>
       </c>
-      <c r="H312">
+      <c r="H319">
         <v>2.4</v>
       </c>
-      <c r="I312">
+      <c r="I319">
         <v>15</v>
       </c>
-      <c r="J312">
+      <c r="J319">
         <v>40</v>
       </c>
-      <c r="K312">
+      <c r="K319">
         <v>1</v>
       </c>
-      <c r="L312">
+      <c r="L319">
         <v>-92966.90000000005</v>
       </c>
-      <c r="M312">
+      <c r="M319">
         <v>-46688.80000000002</v>
       </c>
-      <c r="N312">
+      <c r="N319">
         <v>946</v>
       </c>
-      <c r="O312">
+      <c r="O319">
         <v>-46278.10000000003</v>
       </c>
-      <c r="P312">
+      <c r="P319">
         <v>-7633.900000000001</v>
       </c>
-      <c r="Q312">
+      <c r="Q319">
         <v>1542.799999999999</v>
       </c>
-      <c r="R312">
+      <c r="R319">
         <v>-48.9197674418605</v>
       </c>
-      <c r="S312">
+      <c r="S319">
         <v>372.4064445427117</v>
       </c>
-      <c r="T312">
+      <c r="T319">
         <v>-53.34999999999945</v>
       </c>
-      <c r="U312">
+      <c r="U319">
         <v>0.1701902748414376</v>
       </c>
-      <c r="V312">
+      <c r="V319">
         <v>-1060.551683227051</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22">
+      <c r="A320">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="D320" t="s">
+        <v>25</v>
+      </c>
+      <c r="E320">
+        <v>2017</v>
+      </c>
+      <c r="F320">
+        <v>2024</v>
+      </c>
+      <c r="G320">
+        <v>60</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>5</v>
+      </c>
+      <c r="J320">
+        <v>20</v>
+      </c>
+      <c r="K320">
+        <v>2</v>
+      </c>
+      <c r="L320">
+        <v>-114205.1999999998</v>
+      </c>
+      <c r="M320">
+        <v>-57102.5999999999</v>
+      </c>
+      <c r="N320">
+        <v>4629</v>
+      </c>
+      <c r="O320">
+        <v>-57102.5999999999</v>
+      </c>
+      <c r="P320">
+        <v>-7611.900000000001</v>
+      </c>
+      <c r="Q320">
+        <v>883.8999999999996</v>
+      </c>
+      <c r="R320">
+        <v>-12.33583927414126</v>
+      </c>
+      <c r="S320">
+        <v>199.665736961471</v>
+      </c>
+      <c r="T320">
+        <v>-22.89999999999964</v>
+      </c>
+      <c r="U320">
+        <v>0.2603154028947937</v>
+      </c>
+      <c r="V320">
+        <v>-1302.834848674977</v>
       </c>
     </row>
   </sheetData>
